--- a/HNM03S.xlsx
+++ b/HNM03S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="420">
   <si>
     <t/>
   </si>
@@ -103,112 +103,115 @@
     <t>BAGUS SKT.BAJU 20930</t>
   </si>
   <si>
+    <t>20039156</t>
+  </si>
+  <si>
+    <t>IDM J/HJN DISP DWSA</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20071123</t>
+  </si>
+  <si>
+    <t>IDM JAS HUJAN SETLN</t>
+  </si>
+  <si>
+    <t>20090053</t>
+  </si>
+  <si>
+    <t>BAGUS KAIN LAP SBGNA</t>
+  </si>
+  <si>
+    <t>20038032</t>
+  </si>
+  <si>
+    <t>IDM KAIN LAP PEL</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20062464</t>
+  </si>
+  <si>
+    <t>IDM TSK GIGI TRAVEL</t>
+  </si>
+  <si>
+    <t>20038650</t>
+  </si>
+  <si>
+    <t>IDM TUSUK GIGI 200'S</t>
+  </si>
+  <si>
+    <t>20085916</t>
+  </si>
+  <si>
+    <t>IDM FOOD SVR 2'S 750</t>
+  </si>
+  <si>
+    <t>20121395</t>
+  </si>
+  <si>
+    <t>KIIP RCTANGLR 10S 1L</t>
+  </si>
+  <si>
+    <t>20026412</t>
+  </si>
+  <si>
+    <t>INDOMARET LAP MOTOR</t>
+  </si>
+  <si>
+    <t>20026410</t>
+  </si>
+  <si>
+    <t>INDOMARET LAP MOBIL</t>
+  </si>
+  <si>
+    <t>20036334</t>
+  </si>
+  <si>
+    <t>KEN/M MTR WASH SPNG</t>
+  </si>
+  <si>
+    <t>20075589</t>
+  </si>
+  <si>
+    <t>IDM LILIN PUTIH 8'S</t>
+  </si>
+  <si>
+    <t>20082114</t>
+  </si>
+  <si>
+    <t>IDM PLSTK HDPE 15X30</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20082115</t>
+  </si>
+  <si>
+    <t>IDM PLSTK HDPE 20X35</t>
+  </si>
+  <si>
+    <t>20030983</t>
+  </si>
+  <si>
+    <t>IDM SERBET HANDUK</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>10006200</t>
   </si>
   <si>
     <t>BAGUS SHOE BRSH 3354</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20039156</t>
-  </si>
-  <si>
-    <t>IDM J/HJN DISP DWSA</t>
-  </si>
-  <si>
-    <t>20071123</t>
-  </si>
-  <si>
-    <t>IDM JAS HUJAN SETLN</t>
-  </si>
-  <si>
-    <t>20090053</t>
-  </si>
-  <si>
-    <t>BAGUS KAIN LAP SBGNA</t>
-  </si>
-  <si>
-    <t>20038032</t>
-  </si>
-  <si>
-    <t>IDM KAIN LAP PEL</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20030983</t>
-  </si>
-  <si>
-    <t>IDM SERBET HANDUK</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20062464</t>
-  </si>
-  <si>
-    <t>IDM TSK GIGI TRAVEL</t>
-  </si>
-  <si>
-    <t>20038650</t>
-  </si>
-  <si>
-    <t>IDM TUSUK GIGI 200'S</t>
-  </si>
-  <si>
-    <t>20085916</t>
-  </si>
-  <si>
-    <t>IDM FOOD SVR 2'S 750</t>
-  </si>
-  <si>
-    <t>20121395</t>
-  </si>
-  <si>
-    <t>KIIP RCTANGLR 10S 1L</t>
-  </si>
-  <si>
-    <t>20026412</t>
-  </si>
-  <si>
-    <t>INDOMARET LAP MOTOR</t>
-  </si>
-  <si>
-    <t>20026410</t>
-  </si>
-  <si>
-    <t>INDOMARET LAP MOBIL</t>
-  </si>
-  <si>
-    <t>20036334</t>
-  </si>
-  <si>
-    <t>KEN/M MTR WASH SPNG</t>
-  </si>
-  <si>
-    <t>20075589</t>
-  </si>
-  <si>
-    <t>IDM LILIN PUTIH 8'S</t>
-  </si>
-  <si>
-    <t>20082114</t>
-  </si>
-  <si>
-    <t>IDM PLSTK HDPE 15X30</t>
-  </si>
-  <si>
-    <t>20082115</t>
-  </si>
-  <si>
-    <t>IDM PLSTK HDPE 20X35</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>20128556</t>
@@ -367,12 +370,6 @@
     <t>STELLA DAILY/F ORG/B</t>
   </si>
   <si>
-    <t>20062283</t>
-  </si>
-  <si>
-    <t>STELLA DAILY/F VAN 7</t>
-  </si>
-  <si>
     <t>20130339</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>AMBI/P C/FR.AQUA 7.5</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>20016897</t>
   </si>
   <si>
@@ -559,6 +553,12 @@
     <t>LFE CAT OCN FS TN400</t>
   </si>
   <si>
+    <t>20031233</t>
+  </si>
+  <si>
+    <t>WHISKAS CF MAC&amp;SAL80</t>
+  </si>
+  <si>
     <t>20031236</t>
   </si>
   <si>
@@ -598,12 +598,6 @@
     <t>CUTIES CATZ TUNA 500</t>
   </si>
   <si>
-    <t>20134231</t>
-  </si>
-  <si>
-    <t>ME-O KTN OCN.FISH400</t>
-  </si>
-  <si>
     <t>20031235</t>
   </si>
   <si>
@@ -664,6 +658,12 @@
     <t>ME-O OTAK2 WF&amp;CS 80G</t>
   </si>
   <si>
+    <t>20104599</t>
+  </si>
+  <si>
+    <t>ME-O CRM TRT SLMN 60</t>
+  </si>
+  <si>
     <t>20113920</t>
   </si>
   <si>
@@ -679,16 +679,13 @@
     <t>RT,(E-9B)</t>
   </si>
   <si>
-    <t>20125050</t>
-  </si>
-  <si>
-    <t>ME-O CRM CHICK&amp;LVR2S</t>
-  </si>
-  <si>
-    <t>20092316</t>
-  </si>
-  <si>
-    <t>ME-O CRMY.TR SLMN 2S</t>
+    <t>20104595</t>
+  </si>
+  <si>
+    <t>ME-O CRM CHKN&amp;LVR 60</t>
+  </si>
+  <si>
+    <t>,(E-3B)</t>
   </si>
   <si>
     <t>20102393</t>
@@ -703,12 +700,6 @@
     <t>ME-O TUNA IN JLY 400</t>
   </si>
   <si>
-    <t>20128691</t>
-  </si>
-  <si>
-    <t>CAT CHOIZE TUNA 75G</t>
-  </si>
-  <si>
     <t>20128695</t>
   </si>
   <si>
@@ -721,12 +712,6 @@
     <t>DELI CRM TN&amp;SLMN2X14</t>
   </si>
   <si>
-    <t>20130822</t>
-  </si>
-  <si>
-    <t>KITEKAT ADULT TUNA70</t>
-  </si>
-  <si>
     <t>20135431</t>
   </si>
   <si>
@@ -752,12 +737,6 @@
   </si>
   <si>
     <t>LIFE CAT KTEN TUNA85</t>
-  </si>
-  <si>
-    <t>20130821</t>
-  </si>
-  <si>
-    <t>KITEKAT KTTEN TUNA70</t>
   </si>
   <si>
     <t>20140134</t>
@@ -1684,7 +1663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F189"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1931,7 +1910,7 @@
         <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -1968,10 +1947,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1988,27 +1967,27 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -2025,10 +2004,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2036,10 +2015,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
@@ -2048,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -2056,10 +2035,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>3</v>
@@ -2068,18 +2047,18 @@
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>3</v>
@@ -2088,18 +2067,18 @@
         <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
@@ -2108,7 +2087,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -2116,10 +2095,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>3</v>
@@ -2128,7 +2107,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
@@ -2136,10 +2115,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>3</v>
@@ -2148,18 +2127,18 @@
         <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
@@ -2168,10 +2147,10 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,7 +2167,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
@@ -2208,7 +2187,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -2216,10 +2195,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -2228,18 +2207,18 @@
         <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -2256,10 +2235,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
@@ -2276,10 +2255,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
@@ -2296,10 +2275,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
@@ -2316,10 +2295,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
@@ -2336,10 +2315,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
@@ -2356,10 +2335,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -2376,10 +2355,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -2388,7 +2367,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>19</v>
@@ -2396,10 +2375,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
@@ -2416,10 +2395,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
@@ -2436,10 +2415,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -2456,10 +2435,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -2476,10 +2455,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
@@ -2496,10 +2475,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
@@ -2516,10 +2495,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
@@ -2536,10 +2515,10 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
@@ -2548,7 +2527,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
@@ -2556,10 +2535,10 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
@@ -2571,15 +2550,15 @@
         <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -2591,15 +2570,15 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
@@ -2611,15 +2590,15 @@
         <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -2631,15 +2610,15 @@
         <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
@@ -2651,15 +2630,15 @@
         <v>32</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
@@ -2671,15 +2650,15 @@
         <v>32</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -2696,10 +2675,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
@@ -2716,10 +2695,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
@@ -2736,10 +2715,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
@@ -2748,7 +2727,7 @@
         <v>22</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>19</v>
@@ -2756,10 +2735,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
@@ -2776,10 +2755,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
@@ -2788,18 +2767,18 @@
         <v>22</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
@@ -2811,15 +2790,15 @@
         <v>25</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>3</v>
@@ -2828,18 +2807,18 @@
         <v>22</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
@@ -2848,18 +2827,18 @@
         <v>22</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
@@ -2868,18 +2847,18 @@
         <v>22</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
@@ -2888,18 +2867,18 @@
         <v>22</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
@@ -2908,18 +2887,18 @@
         <v>22</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
@@ -2928,7 +2907,7 @@
         <v>22</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>19</v>
@@ -2936,19 +2915,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>19</v>
@@ -2956,10 +2935,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
@@ -2971,15 +2950,15 @@
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
@@ -2988,18 +2967,18 @@
         <v>25</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
@@ -3008,7 +2987,7 @@
         <v>25</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>19</v>
@@ -3016,10 +2995,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
@@ -3028,7 +3007,7 @@
         <v>25</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>19</v>
@@ -3036,10 +3015,10 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
@@ -3048,7 +3027,7 @@
         <v>25</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>19</v>
@@ -3056,10 +3035,10 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
@@ -3068,7 +3047,7 @@
         <v>25</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>19</v>
@@ -3076,10 +3055,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
@@ -3088,7 +3067,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>19</v>
@@ -3096,10 +3075,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
@@ -3108,7 +3087,7 @@
         <v>25</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>19</v>
@@ -3116,10 +3095,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>3</v>
@@ -3128,7 +3107,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>19</v>
@@ -3136,10 +3115,10 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
@@ -3148,18 +3127,18 @@
         <v>25</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
@@ -3168,18 +3147,18 @@
         <v>25</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
@@ -3188,30 +3167,30 @@
         <v>25</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>135</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,13 +3204,13 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,13 +3224,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3265,13 +3244,13 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3285,13 +3264,13 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3305,13 +3284,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3325,13 +3304,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3345,13 +3324,13 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3365,13 +3344,13 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,13 +3364,13 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3405,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>15</v>
@@ -3425,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>18</v>
@@ -3445,13 +3424,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,13 +3444,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3485,13 +3464,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3505,13 +3484,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3525,13 +3504,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3545,13 +3524,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3565,13 +3544,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3585,13 +3564,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3605,13 +3584,13 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3625,13 +3604,13 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3645,13 +3624,13 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,13 +3644,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3685,13 +3664,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>18</v>
@@ -3725,310 +3704,310 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -4036,19 +4015,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -4056,19 +4035,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -4076,19 +4055,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>166</v>
+        <v>66</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
@@ -4096,279 +4075,279 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>5</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>5</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>5</v>
@@ -4376,19 +4355,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>5</v>
@@ -4396,99 +4375,99 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>19</v>
@@ -4496,19 +4475,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>19</v>
@@ -4516,39 +4495,39 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>19</v>
@@ -4556,19 +4535,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>19</v>
@@ -4576,39 +4555,39 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>299</v>
-      </c>
       <c r="E146" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>5</v>
@@ -4616,59 +4595,59 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>5</v>
@@ -4676,99 +4655,99 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>19</v>
@@ -4776,19 +4755,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>19</v>
@@ -4796,19 +4775,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>19</v>
@@ -4816,79 +4795,79 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="E160" s="1" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>19</v>
@@ -4896,39 +4875,39 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>242</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>320</v>
+        <v>18</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>5</v>
@@ -4936,19 +4915,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>5</v>
@@ -4956,19 +4935,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>19</v>
@@ -4976,59 +4955,59 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>5</v>
@@ -5036,19 +5015,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>19</v>
@@ -5056,19 +5035,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>19</v>
@@ -5076,19 +5055,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>19</v>
@@ -5096,39 +5075,39 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>65</v>
+        <v>313</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>166</v>
+        <v>369</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>19</v>
@@ -5136,19 +5115,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>169</v>
+        <v>342</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>19</v>
@@ -5156,119 +5135,119 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>299</v>
+        <v>374</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>5</v>
@@ -5276,19 +5255,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>5</v>
@@ -5296,19 +5275,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>5</v>
@@ -5316,39 +5295,39 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>5</v>
@@ -5356,99 +5335,99 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>19</v>
@@ -5456,101 +5435,21 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="F193" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/HNM03S.xlsx
+++ b/HNM03S.xlsx
@@ -112,6 +112,12 @@
     <t>3</t>
   </si>
   <si>
+    <t>20140873</t>
+  </si>
+  <si>
+    <t>IDM JAS HJ.DISP STLN</t>
+  </si>
+  <si>
     <t>20071123</t>
   </si>
   <si>
@@ -256,10 +262,10 @@
     <t>IDM PLS.SMPH H/B20'S</t>
   </si>
   <si>
-    <t>20125750</t>
-  </si>
-  <si>
-    <t>S/B SKT LNTI ID-51 M</t>
+    <t>20140686</t>
+  </si>
+  <si>
+    <t>SB SPONS &amp; STNLS</t>
   </si>
   <si>
     <t>20045188</t>
@@ -1040,12 +1046,6 @@
   </si>
   <si>
     <t>16</t>
-  </si>
-  <si>
-    <t>10023747</t>
-  </si>
-  <si>
-    <t>G/SEWU SAPU IJUK PCS</t>
   </si>
   <si>
     <t>20076488</t>
@@ -1927,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -1947,10 +1947,10 @@
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1967,27 +1967,27 @@
         <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -2007,7 +2007,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
@@ -2027,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -2047,10 +2047,10 @@
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2067,7 +2067,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>19</v>
@@ -2087,7 +2087,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -2107,7 +2107,7 @@
         <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
@@ -2127,10 +2127,10 @@
         <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,7 +2147,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>3</v>
@@ -2167,7 +2167,7 @@
         <v>32</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
@@ -2187,7 +2187,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>5</v>
@@ -2195,10 +2195,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>3</v>
@@ -2207,30 +2207,30 @@
         <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2247,7 +2247,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
@@ -2267,7 +2267,7 @@
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>5</v>
@@ -2287,10 +2287,10 @@
         <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2307,7 +2307,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>19</v>
@@ -2327,7 +2327,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>19</v>
@@ -2347,10 +2347,10 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2367,10 +2367,10 @@
         <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2384,13 +2384,13 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2407,7 +2407,7 @@
         <v>18</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -2427,7 +2427,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
@@ -2447,10 +2447,10 @@
         <v>18</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2467,7 +2467,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>19</v>
@@ -2487,7 +2487,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>19</v>
@@ -2507,10 +2507,10 @@
         <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
@@ -2544,21 +2544,21 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
@@ -2570,7 +2570,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2587,18 +2587,18 @@
         <v>22</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
@@ -2610,7 +2610,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2627,10 +2627,10 @@
         <v>22</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
         <v>32</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2667,10 +2667,10 @@
         <v>22</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2707,7 +2707,7 @@
         <v>22</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>19</v>
@@ -2727,7 +2727,7 @@
         <v>22</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>19</v>
@@ -2767,18 +2767,18 @@
         <v>22</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
@@ -2790,7 +2790,7 @@
         <v>25</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2807,10 +2807,10 @@
         <v>22</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2827,10 +2827,10 @@
         <v>22</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2847,18 +2847,18 @@
         <v>22</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
@@ -2867,10 +2867,10 @@
         <v>22</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2887,10 +2887,10 @@
         <v>22</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2907,7 +2907,7 @@
         <v>22</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>19</v>
@@ -2924,10 +2924,10 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>19</v>
@@ -2950,7 +2950,7 @@
         <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2967,10 +2967,10 @@
         <v>25</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2987,7 +2987,7 @@
         <v>25</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>19</v>
@@ -3007,7 +3007,7 @@
         <v>25</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>19</v>
@@ -3027,7 +3027,7 @@
         <v>25</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>19</v>
@@ -3047,7 +3047,7 @@
         <v>25</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>19</v>
@@ -3067,7 +3067,7 @@
         <v>25</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>19</v>
@@ -3087,7 +3087,7 @@
         <v>25</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>19</v>
@@ -3107,7 +3107,7 @@
         <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>19</v>
@@ -3127,10 +3127,10 @@
         <v>25</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3147,10 +3147,10 @@
         <v>25</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3167,30 +3167,30 @@
         <v>25</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F76" s="1" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3204,13 +3204,13 @@
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3224,13 +3224,13 @@
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3244,13 +3244,13 @@
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3264,13 +3264,13 @@
         <v>3</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3284,13 +3284,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,13 +3304,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3324,13 +3324,13 @@
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3344,13 +3344,13 @@
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3364,13 +3364,13 @@
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3384,33 +3384,33 @@
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>190</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,13 +3424,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3444,13 +3444,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3464,13 +3464,13 @@
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3484,13 +3484,13 @@
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3504,13 +3504,13 @@
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3524,13 +3524,13 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3544,13 +3544,13 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3564,13 +3564,13 @@
         <v>3</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3584,13 +3584,13 @@
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,13 +3604,13 @@
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3624,13 +3624,13 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3644,13 +3644,13 @@
         <v>3</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3664,13 +3664,13 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3684,53 +3684,53 @@
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>221</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3744,13 +3744,13 @@
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,13 +3764,13 @@
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,13 +3784,13 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3804,13 +3804,13 @@
         <v>3</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3824,33 +3824,33 @@
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3864,13 +3864,13 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3884,13 +3884,13 @@
         <v>3</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3904,13 +3904,13 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3924,13 +3924,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3944,10 +3944,10 @@
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>5</v>
@@ -3964,10 +3964,10 @@
         <v>3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>5</v>
@@ -3984,10 +3984,10 @@
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -4004,10 +4004,10 @@
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -4024,10 +4024,10 @@
         <v>3</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -4044,10 +4044,10 @@
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -4064,10 +4064,10 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>5</v>
@@ -4084,13 +4084,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4104,13 +4104,13 @@
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4124,13 +4124,13 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,13 +4144,13 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>237</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4164,13 +4164,13 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4184,13 +4184,13 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4204,13 +4204,13 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4224,13 +4224,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4244,13 +4244,13 @@
         <v>3</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4264,13 +4264,13 @@
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4284,10 +4284,10 @@
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>5</v>
@@ -4304,10 +4304,10 @@
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -4324,10 +4324,10 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -4344,10 +4344,10 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>5</v>
@@ -4364,10 +4364,10 @@
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>5</v>
@@ -4375,22 +4375,22 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="E136" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4404,10 +4404,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>19</v>
@@ -4424,10 +4424,10 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>19</v>
@@ -4444,10 +4444,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>19</v>
@@ -4464,10 +4464,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>19</v>
@@ -4484,10 +4484,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>19</v>
@@ -4504,13 +4504,13 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4524,13 +4524,13 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4544,10 +4544,10 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>19</v>
@@ -4564,30 +4564,30 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="E146" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>5</v>
@@ -4604,10 +4604,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
@@ -4624,10 +4624,10 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>5</v>
@@ -4644,10 +4644,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>5</v>
@@ -4664,13 +4664,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4684,10 +4684,10 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>19</v>
@@ -4704,10 +4704,10 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>19</v>
@@ -4724,10 +4724,10 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>19</v>
@@ -4744,10 +4744,10 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>19</v>
@@ -4764,10 +4764,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>19</v>
@@ -4784,10 +4784,10 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>19</v>
@@ -4804,13 +4804,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>237</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4824,13 +4824,13 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>5</v>
+        <v>239</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4844,10 +4844,10 @@
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>4</v>
+        <v>315</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>5</v>
@@ -4855,22 +4855,22 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E160" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4884,7 +4884,7 @@
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>15</v>
@@ -4904,7 +4904,7 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>18</v>
@@ -4924,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>22</v>
@@ -4944,7 +4944,7 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>25</v>
@@ -4964,10 +4964,10 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>19</v>
@@ -4984,10 +4984,10 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>19</v>
@@ -5004,10 +5004,10 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>5</v>
@@ -5024,10 +5024,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>19</v>
@@ -5044,10 +5044,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>19</v>
@@ -5064,10 +5064,10 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>19</v>
@@ -5084,10 +5084,10 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>19</v>
@@ -5104,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>369</v>
@@ -5124,10 +5124,10 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>19</v>
@@ -5144,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>374</v>
@@ -5164,7 +5164,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>377</v>
@@ -5184,7 +5184,7 @@
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>380</v>
@@ -5204,7 +5204,7 @@
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>383</v>
@@ -5224,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>386</v>
@@ -5244,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>389</v>
@@ -5264,7 +5264,7 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>392</v>
@@ -5284,7 +5284,7 @@
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>395</v>
@@ -5304,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>398</v>
@@ -5324,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>401</v>
@@ -5344,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>404</v>
@@ -5364,7 +5364,7 @@
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>407</v>
@@ -5384,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>410</v>
@@ -5404,7 +5404,7 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>413</v>
@@ -5424,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>416</v>
@@ -5444,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>419</v>

--- a/HNM03S.xlsx
+++ b/HNM03S.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{ED1A86FA-6D3B-7F4F-ABEB-BDC408108895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="420">
   <si>
     <t/>
   </si>
@@ -691,9 +708,6 @@
     <t>ME-O CRM CHKN&amp;LVR 60</t>
   </si>
   <si>
-    <t>,(E-3B)</t>
-  </si>
-  <si>
     <t>20102393</t>
   </si>
   <si>
@@ -1271,19 +1285,22 @@
   </si>
   <si>
     <t>32</t>
+  </si>
+  <si>
+    <t>HNM03S_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1304,16 +1321,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1662,18 +1679,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F189"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F190"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F201" sqref="F201"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="5" width="4" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9.953125" customWidth="1"/>
+    <col min="2" max="2" width="22.05859375" customWidth="1"/>
+    <col min="3" max="3" width="7.93359375" customWidth="1"/>
+    <col min="4" max="5" width="4.03515625" customWidth="1"/>
+    <col min="6" max="6" width="11.02734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1713,7 +1735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1733,7 +1755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1753,7 +1775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -1773,7 +1795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1793,7 +1815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1813,7 +1835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1833,7 +1855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1853,7 +1875,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1873,7 +1895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1893,7 +1915,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
@@ -1913,7 +1935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1933,7 +1955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1953,7 +1975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,7 +1995,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
@@ -1993,7 +2015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2013,7 +2035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -2033,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -2053,7 +2075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
@@ -2073,7 +2095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -2093,7 +2115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -2113,7 +2135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2133,7 +2155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -2153,7 +2175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -2173,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -2193,7 +2215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
@@ -2213,7 +2235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -2233,7 +2255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -2253,7 +2275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>71</v>
       </c>
@@ -2273,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
@@ -2293,7 +2315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
@@ -2313,7 +2335,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
@@ -2333,7 +2355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>79</v>
       </c>
@@ -2353,7 +2375,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>81</v>
       </c>
@@ -2373,7 +2395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
@@ -2393,7 +2415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
@@ -2413,7 +2435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>87</v>
       </c>
@@ -2433,7 +2455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>89</v>
       </c>
@@ -2453,7 +2475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>91</v>
       </c>
@@ -2473,7 +2495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>93</v>
       </c>
@@ -2493,7 +2515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>95</v>
       </c>
@@ -2513,7 +2535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>97</v>
       </c>
@@ -2533,7 +2555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>99</v>
       </c>
@@ -2553,7 +2575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>101</v>
       </c>
@@ -2573,7 +2595,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>104</v>
       </c>
@@ -2593,7 +2615,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>106</v>
       </c>
@@ -2613,7 +2635,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
@@ -2633,7 +2655,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
@@ -2653,7 +2675,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>113</v>
       </c>
@@ -2673,7 +2695,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>115</v>
       </c>
@@ -2693,7 +2715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
@@ -2713,7 +2735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
@@ -2733,7 +2755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>121</v>
       </c>
@@ -2753,7 +2775,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>123</v>
       </c>
@@ -2773,7 +2795,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>125</v>
       </c>
@@ -2793,7 +2815,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>128</v>
       </c>
@@ -2813,7 +2835,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>130</v>
       </c>
@@ -2833,7 +2855,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>132</v>
       </c>
@@ -2853,7 +2875,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>134</v>
       </c>
@@ -2873,7 +2895,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -2893,7 +2915,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>139</v>
       </c>
@@ -2913,7 +2935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>141</v>
       </c>
@@ -2933,7 +2955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>143</v>
       </c>
@@ -2953,7 +2975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
@@ -2973,7 +2995,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>147</v>
       </c>
@@ -2993,7 +3015,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>149</v>
       </c>
@@ -3013,7 +3035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>151</v>
       </c>
@@ -3033,7 +3055,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>153</v>
       </c>
@@ -3053,7 +3075,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>155</v>
       </c>
@@ -3073,7 +3095,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>157</v>
       </c>
@@ -3093,7 +3115,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>159</v>
       </c>
@@ -3113,7 +3135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>161</v>
       </c>
@@ -3133,7 +3155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>163</v>
       </c>
@@ -3153,7 +3175,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>165</v>
       </c>
@@ -3173,7 +3195,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>167</v>
       </c>
@@ -3193,7 +3215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>170</v>
       </c>
@@ -3213,7 +3235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>172</v>
       </c>
@@ -3233,7 +3255,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>174</v>
       </c>
@@ -3253,7 +3275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>176</v>
       </c>
@@ -3273,7 +3295,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>178</v>
       </c>
@@ -3293,7 +3315,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>180</v>
       </c>
@@ -3313,7 +3335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>182</v>
       </c>
@@ -3333,7 +3355,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>184</v>
       </c>
@@ -3353,7 +3375,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>186</v>
       </c>
@@ -3373,7 +3395,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>188</v>
       </c>
@@ -3393,7 +3415,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>190</v>
       </c>
@@ -3413,7 +3435,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>193</v>
       </c>
@@ -3433,7 +3455,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>195</v>
       </c>
@@ -3453,7 +3475,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>197</v>
       </c>
@@ -3473,7 +3495,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>199</v>
       </c>
@@ -3493,7 +3515,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>201</v>
       </c>
@@ -3513,7 +3535,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>203</v>
       </c>
@@ -3533,7 +3555,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>205</v>
       </c>
@@ -3553,7 +3575,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>207</v>
       </c>
@@ -3573,7 +3595,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>209</v>
       </c>
@@ -3593,7 +3615,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>211</v>
       </c>
@@ -3613,7 +3635,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>213</v>
       </c>
@@ -3633,7 +3655,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>215</v>
       </c>
@@ -3653,7 +3675,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>217</v>
       </c>
@@ -3673,7 +3695,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>219</v>
       </c>
@@ -3693,7 +3715,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>221</v>
       </c>
@@ -3713,7 +3735,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>224</v>
       </c>
@@ -3730,15 +3752,15 @@
         <v>22</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
@@ -3753,12 +3775,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
@@ -3773,12 +3795,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
@@ -3793,12 +3815,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
@@ -3813,12 +3835,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
@@ -3833,12 +3855,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
@@ -3850,15 +3872,15 @@
         <v>60</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
@@ -3873,12 +3895,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
@@ -3893,12 +3915,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
@@ -3913,12 +3935,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
@@ -3933,12 +3955,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
@@ -3953,12 +3975,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
@@ -3973,12 +3995,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
@@ -3993,12 +4015,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
@@ -4013,12 +4035,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
@@ -4033,12 +4055,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
@@ -4053,12 +4075,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
@@ -4073,12 +4095,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
@@ -4093,12 +4115,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
@@ -4113,12 +4135,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
@@ -4133,12 +4155,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
@@ -4153,12 +4175,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
@@ -4170,15 +4192,15 @@
         <v>10</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -4190,15 +4212,15 @@
         <v>32</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>3</v>
@@ -4213,12 +4235,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
@@ -4233,12 +4255,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>3</v>
@@ -4253,12 +4275,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
@@ -4273,12 +4295,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>3</v>
@@ -4293,12 +4315,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
@@ -4313,12 +4335,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
@@ -4333,12 +4355,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
@@ -4353,12 +4375,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>3</v>
@@ -4373,18 +4395,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>4</v>
@@ -4393,18 +4415,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>10</v>
@@ -4413,18 +4435,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>32</v>
@@ -4433,18 +4455,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>300</v>
-      </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>15</v>
@@ -4453,18 +4475,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>18</v>
@@ -4473,18 +4495,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="C141" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>22</v>
@@ -4493,18 +4515,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="C142" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>25</v>
@@ -4513,18 +4535,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>41</v>
@@ -4533,18 +4555,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>60</v>
@@ -4553,18 +4575,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="C145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>65</v>
@@ -4573,18 +4595,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>4</v>
@@ -4593,18 +4615,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="C147" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>10</v>
@@ -4613,18 +4635,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="C148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>32</v>
@@ -4633,18 +4655,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>15</v>
@@ -4653,18 +4675,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="C150" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>18</v>
@@ -4673,18 +4695,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>22</v>
@@ -4693,18 +4715,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="C152" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>25</v>
@@ -4713,18 +4735,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="C153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>41</v>
@@ -4733,18 +4755,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="C154" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>60</v>
@@ -4753,18 +4775,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B155" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>65</v>
@@ -4773,18 +4795,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="C156" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>68</v>
@@ -4793,18 +4815,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="C157" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>169</v>
@@ -4813,58 +4835,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B158" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>4</v>
@@ -4873,18 +4895,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="C161" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>15</v>
@@ -4893,18 +4915,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>18</v>
@@ -4913,18 +4935,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>22</v>
@@ -4933,18 +4955,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="C164" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>25</v>
@@ -4953,18 +4975,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>41</v>
@@ -4973,18 +4995,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="C166" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>60</v>
@@ -4993,18 +5015,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="C167" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>65</v>
@@ -5013,18 +5035,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>68</v>
@@ -5033,18 +5055,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>169</v>
@@ -5053,408 +5075,428 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E172" s="1" t="s">
+      <c r="F172" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F172" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E174" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E174" s="1" t="s">
+      <c r="F174" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F174" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E175" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E175" s="1" t="s">
+      <c r="F175" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="F175" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E176" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E176" s="1" t="s">
+      <c r="F176" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F176" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="F177" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E178" s="1" t="s">
+      <c r="F178" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F178" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E179" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="F179" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="F179" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E180" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E180" s="1" t="s">
+      <c r="F180" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E181" s="1" t="s">
+      <c r="F181" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="F181" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E182" s="1" t="s">
+      <c r="F182" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="F182" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E183" s="1" t="s">
+      <c r="F183" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="F183" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E184" s="1" t="s">
+      <c r="F184" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F184" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E185" s="1" t="s">
+      <c r="F185" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="F185" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E186" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E186" s="1" t="s">
+      <c r="F186" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F186" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E187" s="1" t="s">
+      <c r="F187" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E188" s="1" t="s">
+      <c r="F188" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F188" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>20134229</v>
+      </c>
+      <c r="B190" t="s">
+        <v>229</v>
+      </c>
+      <c r="C190" t="s">
         <v>419</v>
       </c>
-      <c r="F189" s="1" t="s">
-        <v>5</v>
+      <c r="D190">
+        <v>17</v>
+      </c>
+      <c r="E190">
+        <v>5</v>
+      </c>
+      <c r="F190" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/HNM03S.xlsx
+++ b/HNM03S.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{ED1A86FA-6D3B-7F4F-ABEB-BDC408108895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{A4D9DCD4-0323-2247-81ED-4FE3CA3DFA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="415">
   <si>
     <t/>
   </si>
@@ -582,24 +582,12 @@
     <t>WHISKAS CF MAC&amp;SAL80</t>
   </si>
   <si>
-    <t>20031236</t>
-  </si>
-  <si>
-    <t>WHSKAS JR OCEAN 450G</t>
-  </si>
-  <si>
     <t>20064471</t>
   </si>
   <si>
     <t>WHISKAS TUNA 480G</t>
   </si>
   <si>
-    <t>20121358</t>
-  </si>
-  <si>
-    <t>WHISKAS S&amp;C 450G</t>
-  </si>
-  <si>
     <t>20088717</t>
   </si>
   <si>
@@ -1134,157 +1122,154 @@
     <t>KEN/M KRAN PLSTK PTH</t>
   </si>
   <si>
+    <t>10016469</t>
+  </si>
+  <si>
+    <t>KEN/M GAS LIGHTER</t>
+  </si>
+  <si>
     <t>15</t>
   </si>
   <si>
-    <t>10016469</t>
-  </si>
-  <si>
-    <t>KEN/M GAS LIGHTER</t>
-  </si>
-  <si>
     <t>20053613</t>
   </si>
   <si>
     <t>IDM TALI TAMBANG 6MM</t>
   </si>
   <si>
+    <t>20074350</t>
+  </si>
+  <si>
+    <t>IDM PAYUNG LPT TIGA</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
-    <t>20074350</t>
-  </si>
-  <si>
-    <t>IDM PAYUNG LPT TIGA</t>
+    <t>20101096</t>
+  </si>
+  <si>
+    <t>IDM SANDAL EVA RUB42</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>20101096</t>
-  </si>
-  <si>
-    <t>IDM SANDAL EVA RUB42</t>
+    <t>20072325</t>
+  </si>
+  <si>
+    <t>IDM SNDAL WNTA 37-38</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>20072325</t>
-  </si>
-  <si>
-    <t>IDM SNDAL WNTA 37-38</t>
+    <t>20037222</t>
+  </si>
+  <si>
+    <t>KEN/M RKT NYM+SNTR B</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>20037222</t>
-  </si>
-  <si>
-    <t>KEN/M RKT NYM+SNTR B</t>
+    <t>20101097</t>
+  </si>
+  <si>
+    <t>IDM SANDAL EVA RUB39</t>
   </si>
   <si>
     <t>21</t>
   </si>
   <si>
-    <t>20101097</t>
-  </si>
-  <si>
-    <t>IDM SANDAL EVA RUB39</t>
+    <t>20093211</t>
+  </si>
+  <si>
+    <t>IDM SANDAL JPT KRT40</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>20093211</t>
-  </si>
-  <si>
-    <t>IDM SANDAL JPT KRT40</t>
+    <t>20072320</t>
+  </si>
+  <si>
+    <t>IDM SNDAL PRIA 39-40</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>20072320</t>
-  </si>
-  <si>
-    <t>IDM SNDAL PRIA 39-40</t>
+    <t>20072322</t>
+  </si>
+  <si>
+    <t>IDM SNDAL PRIA 41-42</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>20072322</t>
-  </si>
-  <si>
-    <t>IDM SNDAL PRIA 41-42</t>
+    <t>20093212</t>
+  </si>
+  <si>
+    <t>IDM SANDAL JPT KRT42</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>20093212</t>
-  </si>
-  <si>
-    <t>IDM SANDAL JPT KRT42</t>
+    <t>20118405</t>
+  </si>
+  <si>
+    <t>CLARIS EMBER 12 TTP</t>
   </si>
   <si>
     <t>26</t>
   </si>
   <si>
-    <t>20118405</t>
-  </si>
-  <si>
-    <t>CLARIS EMBER 12 TTP</t>
+    <t>20126380</t>
+  </si>
+  <si>
+    <t>30CLIP WINDPROF BSKT</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>20126380</t>
-  </si>
-  <si>
-    <t>30CLIP WINDPROF BSKT</t>
+    <t>20127779</t>
+  </si>
+  <si>
+    <t>COOGER WALL SOAP W+G</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>20127779</t>
-  </si>
-  <si>
-    <t>COOGER WALL SOAP W+G</t>
+    <t>20126372</t>
+  </si>
+  <si>
+    <t>DISC MULTI TOOHBRUSH</t>
   </si>
   <si>
     <t>29</t>
   </si>
   <si>
-    <t>20126372</t>
-  </si>
-  <si>
-    <t>DISC MULTI TOOHBRUSH</t>
+    <t>20126381</t>
+  </si>
+  <si>
+    <t>RLR TYPE PWRFUL MOP</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>20126381</t>
-  </si>
-  <si>
-    <t>RLR TYPE PWRFUL MOP</t>
+    <t>20139712</t>
+  </si>
+  <si>
+    <t>IDM SANDAL JPT KRT38</t>
   </si>
   <si>
     <t>31</t>
-  </si>
-  <si>
-    <t>20139712</t>
-  </si>
-  <si>
-    <t>IDM SANDAL JPT KRT38</t>
-  </si>
-  <si>
-    <t>32</t>
   </si>
   <si>
     <t>HNM03S_2</t>
@@ -1680,10 +1665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188:F188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3369,7 +3354,7 @@
         <v>60</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>108</v>
@@ -3389,18 +3374,18 @@
         <v>60</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -3409,18 +3394,18 @@
         <v>60</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
@@ -3429,10 +3414,10 @@
         <v>60</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -3446,13 +3431,13 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -3466,13 +3451,13 @@
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3509,7 +3494,7 @@
         <v>65</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>108</v>
@@ -3529,7 +3514,7 @@
         <v>65</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>108</v>
@@ -3549,7 +3534,7 @@
         <v>65</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>108</v>
@@ -3569,7 +3554,7 @@
         <v>65</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>108</v>
@@ -3589,7 +3574,7 @@
         <v>65</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>108</v>
@@ -3609,7 +3594,7 @@
         <v>65</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>108</v>
@@ -3649,7 +3634,7 @@
         <v>65</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>108</v>
@@ -3669,7 +3654,7 @@
         <v>65</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>108</v>
@@ -3692,15 +3677,15 @@
         <v>18</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
@@ -3709,7 +3694,7 @@
         <v>65</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>108</v>
@@ -3717,10 +3702,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
@@ -3729,10 +3714,10 @@
         <v>65</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
@@ -3749,10 +3734,10 @@
         <v>65</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -3769,7 +3754,7 @@
         <v>65</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>108</v>
@@ -3789,10 +3774,10 @@
         <v>65</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -3809,7 +3794,7 @@
         <v>65</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>108</v>
@@ -3829,18 +3814,18 @@
         <v>65</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>108</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
@@ -3849,7 +3834,7 @@
         <v>65</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>108</v>
@@ -3857,10 +3842,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
@@ -3869,10 +3854,10 @@
         <v>65</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -3889,10 +3874,10 @@
         <v>65</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -3909,10 +3894,10 @@
         <v>65</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -3926,13 +3911,13 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -3946,13 +3931,13 @@
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>169</v>
+        <v>10</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -3969,7 +3954,7 @@
         <v>68</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>5</v>
@@ -3989,7 +3974,7 @@
         <v>68</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>5</v>
@@ -4009,7 +3994,7 @@
         <v>68</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -4029,7 +4014,7 @@
         <v>68</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -4049,7 +4034,7 @@
         <v>68</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -4069,7 +4054,7 @@
         <v>68</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -4086,13 +4071,13 @@
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -4106,13 +4091,13 @@
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4129,7 +4114,7 @@
         <v>169</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>103</v>
@@ -4149,10 +4134,10 @@
         <v>169</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4169,10 +4154,10 @@
         <v>169</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -4189,10 +4174,10 @@
         <v>169</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4209,10 +4194,10 @@
         <v>169</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>238</v>
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4229,7 +4214,7 @@
         <v>169</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>103</v>
@@ -4249,7 +4234,7 @@
         <v>169</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>19</v>
@@ -4269,10 +4254,10 @@
         <v>169</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -4289,10 +4274,10 @@
         <v>169</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -4309,7 +4294,7 @@
         <v>169</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>5</v>
@@ -4329,7 +4314,7 @@
         <v>169</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -4349,7 +4334,7 @@
         <v>169</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -4366,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>5</v>
@@ -4377,42 +4362,42 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -4426,10 +4411,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>19</v>
@@ -4446,10 +4431,10 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>19</v>
@@ -4466,10 +4451,10 @@
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>19</v>
@@ -4486,10 +4471,10 @@
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>19</v>
@@ -4506,13 +4491,13 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -4526,10 +4511,10 @@
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>19</v>
@@ -4546,13 +4531,13 @@
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -4566,50 +4551,50 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E145" s="1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>5</v>
@@ -4626,10 +4611,10 @@
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
@@ -4646,10 +4631,10 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>5</v>
@@ -4666,13 +4651,13 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
@@ -4686,13 +4671,13 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
@@ -4706,10 +4691,10 @@
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>19</v>
@@ -4726,10 +4711,10 @@
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>19</v>
@@ -4746,10 +4731,10 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>19</v>
@@ -4766,10 +4751,10 @@
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>19</v>
@@ -4786,10 +4771,10 @@
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>19</v>
@@ -4806,13 +4791,13 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>68</v>
+        <v>289</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
@@ -4826,13 +4811,13 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>169</v>
+        <v>310</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
@@ -4846,30 +4831,30 @@
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>238</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>314</v>
-      </c>
       <c r="E159" s="1" t="s">
-        <v>314</v>
+        <v>32</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>5</v>
@@ -4877,19 +4862,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>5</v>
@@ -4906,10 +4891,10 @@
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
@@ -4926,13 +4911,13 @@
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -4946,13 +4931,13 @@
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -4966,10 +4951,10 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>19</v>
@@ -4986,13 +4971,13 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -5006,10 +4991,10 @@
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>19</v>
@@ -5026,13 +5011,13 @@
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -5046,10 +5031,10 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>19</v>
@@ -5066,10 +5051,10 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>19</v>
@@ -5086,10 +5071,10 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>19</v>
@@ -5106,10 +5091,10 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>19</v>
@@ -5117,22 +5102,22 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
@@ -5146,30 +5131,30 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>5</v>
@@ -5177,19 +5162,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
@@ -5197,39 +5182,39 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>5</v>
@@ -5237,39 +5222,39 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>5</v>
@@ -5277,19 +5262,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>5</v>
@@ -5297,19 +5282,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>5</v>
@@ -5317,59 +5302,59 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>19</v>
@@ -5377,19 +5362,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>19</v>
@@ -5397,19 +5382,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>19</v>
@@ -5417,81 +5402,41 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="B188" s="1" t="s">
+      <c r="A188">
+        <v>20134229</v>
+      </c>
+      <c r="B188" t="s">
+        <v>225</v>
+      </c>
+      <c r="C188" t="s">
         <v>414</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>20134229</v>
-      </c>
-      <c r="B190" t="s">
-        <v>229</v>
-      </c>
-      <c r="C190" t="s">
-        <v>419</v>
-      </c>
-      <c r="D190">
-        <v>17</v>
-      </c>
-      <c r="E190">
-        <v>5</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="D188">
+        <v>8</v>
+      </c>
+      <c r="E188">
+        <v>5</v>
+      </c>
+      <c r="F188" t="s">
         <v>127</v>
       </c>
     </row>

--- a/HNM03S.xlsx
+++ b/HNM03S.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{A4D9DCD4-0323-2247-81ED-4FE3CA3DFA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{119C1E12-1F34-4643-8E92-2F07ED42EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="419">
   <si>
     <t/>
   </si>
@@ -582,10 +582,22 @@
     <t>WHISKAS CF MAC&amp;SAL80</t>
   </si>
   <si>
+    <t>20141219</t>
+  </si>
+  <si>
+    <t>WHSKAS JR TUNA 180G</t>
+  </si>
+  <si>
     <t>20064471</t>
   </si>
   <si>
     <t>WHISKAS TUNA 480G</t>
+  </si>
+  <si>
+    <t>20141220</t>
+  </si>
+  <si>
+    <t>WHSKAS ADLT TUNA 200</t>
   </si>
   <si>
     <t>20088717</t>
@@ -1665,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F188"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188:F188"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3281,20 +3293,20 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>178</v>
+      <c r="A81" s="1">
+        <v>20134229</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>229</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>22</v>
+        <v>418</v>
+      </c>
+      <c r="D81" s="1">
+        <v>8</v>
+      </c>
+      <c r="E81" s="1">
+        <v>5</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>127</v>
@@ -3302,10 +3314,10 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
@@ -3314,27 +3326,27 @@
         <v>41</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>108</v>
@@ -3342,10 +3354,10 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
@@ -3354,7 +3366,7 @@
         <v>60</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>108</v>
@@ -3362,10 +3374,10 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
@@ -3374,18 +3386,18 @@
         <v>60</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
@@ -3394,18 +3406,18 @@
         <v>60</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
@@ -3414,7 +3426,7 @@
         <v>60</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>103</v>
@@ -3422,70 +3434,70 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
@@ -3494,7 +3506,7 @@
         <v>65</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>108</v>
@@ -3502,10 +3514,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
@@ -3514,7 +3526,7 @@
         <v>65</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>108</v>
@@ -3522,10 +3534,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>3</v>
@@ -3534,7 +3546,7 @@
         <v>65</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>108</v>
@@ -3542,10 +3554,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>3</v>
@@ -3554,7 +3566,7 @@
         <v>65</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>108</v>
@@ -3562,10 +3574,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>3</v>
@@ -3574,7 +3586,7 @@
         <v>65</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>108</v>
@@ -3582,10 +3594,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
@@ -3594,7 +3606,7 @@
         <v>65</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>108</v>
@@ -3602,10 +3614,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
@@ -3614,7 +3626,7 @@
         <v>65</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>108</v>
@@ -3622,10 +3634,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>3</v>
@@ -3634,7 +3646,7 @@
         <v>65</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>108</v>
@@ -3642,10 +3654,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>3</v>
@@ -3654,7 +3666,7 @@
         <v>65</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>108</v>
@@ -3662,10 +3674,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
@@ -3674,18 +3686,18 @@
         <v>65</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
@@ -3694,7 +3706,7 @@
         <v>65</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>108</v>
@@ -3702,10 +3714,10 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>3</v>
@@ -3714,7 +3726,7 @@
         <v>65</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>108</v>
@@ -3722,10 +3734,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>3</v>
@@ -3734,18 +3746,18 @@
         <v>65</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
@@ -3754,7 +3766,7 @@
         <v>65</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>108</v>
@@ -3762,10 +3774,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
@@ -3774,7 +3786,7 @@
         <v>65</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>108</v>
@@ -3782,10 +3794,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>3</v>
@@ -3794,18 +3806,18 @@
         <v>65</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>3</v>
@@ -3814,18 +3826,18 @@
         <v>65</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>234</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
@@ -3834,7 +3846,7 @@
         <v>65</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>108</v>
@@ -3842,10 +3854,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
@@ -3854,7 +3866,7 @@
         <v>65</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>108</v>
@@ -3862,10 +3874,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>3</v>
@@ -3874,18 +3886,18 @@
         <v>65</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>3</v>
@@ -3894,78 +3906,78 @@
         <v>65</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D113" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F113" s="1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>3</v>
@@ -3974,7 +3986,7 @@
         <v>68</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>5</v>
@@ -3982,10 +3994,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
@@ -3994,7 +4006,7 @@
         <v>68</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -4002,10 +4014,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
@@ -4014,7 +4026,7 @@
         <v>68</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>5</v>
@@ -4022,10 +4034,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>3</v>
@@ -4034,7 +4046,7 @@
         <v>68</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>5</v>
@@ -4042,10 +4054,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
@@ -4054,7 +4066,7 @@
         <v>68</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -4062,70 +4074,70 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>169</v>
+        <v>68</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>3</v>
@@ -4134,18 +4146,18 @@
         <v>169</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>3</v>
@@ -4154,18 +4166,18 @@
         <v>169</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>3</v>
@@ -4174,18 +4186,18 @@
         <v>169</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>3</v>
@@ -4194,18 +4206,18 @@
         <v>169</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>3</v>
@@ -4214,18 +4226,18 @@
         <v>169</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
@@ -4234,18 +4246,18 @@
         <v>169</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>3</v>
@@ -4254,18 +4266,18 @@
         <v>169</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
@@ -4274,18 +4286,18 @@
         <v>169</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>3</v>
@@ -4294,18 +4306,18 @@
         <v>169</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
@@ -4314,7 +4326,7 @@
         <v>169</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>5</v>
@@ -4322,10 +4334,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>3</v>
@@ -4334,7 +4346,7 @@
         <v>169</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -4342,19 +4354,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>5</v>
@@ -4362,79 +4374,79 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>289</v>
+        <v>169</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>19</v>
@@ -4442,19 +4454,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>19</v>
@@ -4462,19 +4474,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>19</v>
@@ -4482,39 +4494,39 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>19</v>
@@ -4522,19 +4534,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>19</v>
@@ -4542,19 +4554,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>5</v>
@@ -4562,59 +4574,59 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
@@ -4622,19 +4634,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>5</v>
@@ -4642,79 +4654,79 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>19</v>
@@ -4722,19 +4734,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>19</v>
@@ -4742,19 +4754,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>19</v>
@@ -4762,19 +4774,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>19</v>
@@ -4782,99 +4794,99 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>234</v>
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>310</v>
+        <v>68</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>5</v>
+        <v>238</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>5</v>
@@ -4882,19 +4894,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
@@ -4902,99 +4914,99 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>19</v>
@@ -5002,19 +5014,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>19</v>
@@ -5022,39 +5034,39 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>289</v>
+        <v>65</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>19</v>
@@ -5062,19 +5074,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>310</v>
+        <v>68</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>19</v>
@@ -5082,19 +5094,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>366</v>
+        <v>169</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>19</v>
@@ -5102,79 +5114,79 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>5</v>
@@ -5182,39 +5194,39 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>5</v>
@@ -5222,19 +5234,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>5</v>
@@ -5242,39 +5254,39 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>5</v>
@@ -5282,19 +5294,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>5</v>
@@ -5302,79 +5314,79 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>19</v>
@@ -5382,19 +5394,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>19</v>
@@ -5402,42 +5414,82 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="F188" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E187" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F187" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>20134229</v>
-      </c>
-      <c r="B188" t="s">
-        <v>225</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="C189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D188">
-        <v>8</v>
-      </c>
-      <c r="E188">
-        <v>5</v>
-      </c>
-      <c r="F188" t="s">
-        <v>127</v>
+      <c r="F189" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
